--- a/biology/Médecine/Cathétérisme/Cathétérisme.xlsx
+++ b/biology/Médecine/Cathétérisme/Cathétérisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cath%C3%A9t%C3%A9risme</t>
+          <t>Cathétérisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le cathétérisme est un acte médical consistant à introduire un dispositif médical, le cathéter, dans la lumière d'un organe tubulaire creux. Cathétériser est le verbe correspondant.
 Le cathéter est un fin tuyau souple et creux. Il est raccordé le plus souvent à l'extérieur par une tubulure (long tube de plastique souple et le plus souvent transparent).
